--- a/PopuliQB_Tool/QB- Item List.xlsx
+++ b/PopuliQB_Tool/QB- Item List.xlsx
@@ -1,46 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20405"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hwogayehu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Upwork\QueensCounsulting\PopuliQB1\PopuliQB_Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79342C74-A18A-4DCC-8774-5945C50B0B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDACF9E-ADB1-4173-8973-0E2C637E1F10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D1EC46F2-DFE4-4AD9-84B0-06E54D97CEF4}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{D1EC46F2-DFE4-4AD9-84B0-06E54D97CEF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Item List- Invoice" sheetId="1" r:id="rId1"/>
     <sheet name="Item List- Credit memo" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Item List- Invoice'!$A$1:$B$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Item List- Invoice'!$A$1:$B$39</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="230">
   <si>
     <t>414220 ·: Student Tech Fees- MSP</t>
   </si>
@@ -727,6 +716,9 @@
   </si>
   <si>
     <t>420452 ·: VA Benefits (s/b $0)</t>
+  </si>
+  <si>
+    <t>Student Activity fee PsyD</t>
   </si>
 </sst>
 </file>
@@ -1147,20 +1139,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5315B542-CA34-4B58-8AC4-D11D579A4569}">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>64</v>
       </c>
@@ -1168,7 +1160,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>62</v>
       </c>
@@ -1176,7 +1168,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>61</v>
       </c>
@@ -1184,7 +1176,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>59</v>
       </c>
@@ -1192,7 +1184,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>58</v>
       </c>
@@ -1200,7 +1192,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>56</v>
       </c>
@@ -1208,7 +1200,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>55</v>
       </c>
@@ -1216,7 +1208,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>54</v>
       </c>
@@ -1224,7 +1216,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>52</v>
       </c>
@@ -1232,7 +1224,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>50</v>
       </c>
@@ -1240,7 +1232,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>49</v>
       </c>
@@ -1248,7 +1240,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>47</v>
       </c>
@@ -1256,7 +1248,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>45</v>
       </c>
@@ -1264,7 +1256,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>44</v>
       </c>
@@ -1272,7 +1264,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>42</v>
       </c>
@@ -1280,7 +1272,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>40</v>
       </c>
@@ -1288,7 +1280,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>39</v>
       </c>
@@ -1296,7 +1288,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>37</v>
       </c>
@@ -1304,7 +1296,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>36</v>
       </c>
@@ -1312,7 +1304,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>34</v>
       </c>
@@ -1320,7 +1312,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>32</v>
       </c>
@@ -1328,139 +1320,147 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B35" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B39" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1477,24 +1477,24 @@
     <hyperlink ref="A17" r:id="rId9" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/15" xr:uid="{C791D244-5822-49E0-A313-9058B19ABC68}"/>
     <hyperlink ref="A18" r:id="rId10" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/14" xr:uid="{AD4E444C-1BE9-467E-8684-FC4C0F35C0D3}"/>
     <hyperlink ref="A19" r:id="rId11" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/16" xr:uid="{FE2B8635-7844-49E6-929B-E5021D56A5EB}"/>
-    <hyperlink ref="A23" r:id="rId12" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/11" xr:uid="{1A6A13D9-DDF6-4F14-896D-9097C71E51B6}"/>
+    <hyperlink ref="A24" r:id="rId12" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/11" xr:uid="{1A6A13D9-DDF6-4F14-896D-9097C71E51B6}"/>
     <hyperlink ref="A21" r:id="rId13" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/12" xr:uid="{80C083DA-0282-442E-BBE7-6A6482C0464C}"/>
-    <hyperlink ref="A22" r:id="rId14" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/10" xr:uid="{FE3A03E8-DDAF-49AB-A0CC-8C8025656C55}"/>
-    <hyperlink ref="A24" r:id="rId15" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/9" xr:uid="{FAE57A08-8419-40D5-ACA0-8C6488CF3AFB}"/>
-    <hyperlink ref="A25" r:id="rId16" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/7" xr:uid="{1C9DCE4F-D604-4129-8AD4-5C5220C16AC0}"/>
-    <hyperlink ref="A27" r:id="rId17" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/18" xr:uid="{4B5F5FBD-727A-4E22-A7DE-9DA8E11C5489}"/>
-    <hyperlink ref="A28" r:id="rId18" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/17" xr:uid="{C84A7E95-67A2-4C93-8857-AEBF5330724F}"/>
-    <hyperlink ref="A29" r:id="rId19" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/28" xr:uid="{265852ED-2396-4C5F-85DB-EE918FA5F6C5}"/>
-    <hyperlink ref="A30" r:id="rId20" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/32" xr:uid="{C13E8989-3587-45D6-B9FF-ED34F3FD7777}"/>
-    <hyperlink ref="A31" r:id="rId21" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/20" xr:uid="{7F1C1D56-0B4A-4063-AE78-7C85FCDF0608}"/>
-    <hyperlink ref="A32" r:id="rId22" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/21" xr:uid="{B6465ACB-A275-4539-82F0-FB3644644C23}"/>
-    <hyperlink ref="A33" r:id="rId23" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/19" xr:uid="{941DDE89-9D1E-45F7-9384-ADF54D69589E}"/>
-    <hyperlink ref="A34" r:id="rId24" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/37" xr:uid="{6E3DB15D-7342-443A-A094-ACE6A8032944}"/>
-    <hyperlink ref="A35" r:id="rId25" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/43" xr:uid="{96F93ED6-156C-4759-AAA2-895498527B00}"/>
-    <hyperlink ref="A36" r:id="rId26" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/33" xr:uid="{BC2E3CBD-BCDA-437F-A51D-C9D4E898C316}"/>
-    <hyperlink ref="A37" r:id="rId27" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/3" xr:uid="{FBD370C5-C3F4-467C-8C95-B7312567C99B}"/>
-    <hyperlink ref="A38" r:id="rId28" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/2" xr:uid="{B3F46C47-D0D3-403B-8FDC-8D4BECB1D010}"/>
-    <hyperlink ref="A26" r:id="rId29" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/31" xr:uid="{7537E9EB-E78D-4606-9A02-450948D391E8}"/>
+    <hyperlink ref="A23" r:id="rId14" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/10" xr:uid="{FE3A03E8-DDAF-49AB-A0CC-8C8025656C55}"/>
+    <hyperlink ref="A25" r:id="rId15" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/9" xr:uid="{FAE57A08-8419-40D5-ACA0-8C6488CF3AFB}"/>
+    <hyperlink ref="A26" r:id="rId16" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/7" xr:uid="{1C9DCE4F-D604-4129-8AD4-5C5220C16AC0}"/>
+    <hyperlink ref="A28" r:id="rId17" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/18" xr:uid="{4B5F5FBD-727A-4E22-A7DE-9DA8E11C5489}"/>
+    <hyperlink ref="A29" r:id="rId18" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/17" xr:uid="{C84A7E95-67A2-4C93-8857-AEBF5330724F}"/>
+    <hyperlink ref="A30" r:id="rId19" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/28" xr:uid="{265852ED-2396-4C5F-85DB-EE918FA5F6C5}"/>
+    <hyperlink ref="A31" r:id="rId20" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/32" xr:uid="{C13E8989-3587-45D6-B9FF-ED34F3FD7777}"/>
+    <hyperlink ref="A32" r:id="rId21" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/20" xr:uid="{7F1C1D56-0B4A-4063-AE78-7C85FCDF0608}"/>
+    <hyperlink ref="A33" r:id="rId22" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/21" xr:uid="{B6465ACB-A275-4539-82F0-FB3644644C23}"/>
+    <hyperlink ref="A34" r:id="rId23" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/19" xr:uid="{941DDE89-9D1E-45F7-9384-ADF54D69589E}"/>
+    <hyperlink ref="A35" r:id="rId24" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/37" xr:uid="{6E3DB15D-7342-443A-A094-ACE6A8032944}"/>
+    <hyperlink ref="A36" r:id="rId25" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/43" xr:uid="{96F93ED6-156C-4759-AAA2-895498527B00}"/>
+    <hyperlink ref="A37" r:id="rId26" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/33" xr:uid="{BC2E3CBD-BCDA-437F-A51D-C9D4E898C316}"/>
+    <hyperlink ref="A38" r:id="rId27" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/3" xr:uid="{FBD370C5-C3F4-467C-8C95-B7312567C99B}"/>
+    <hyperlink ref="A39" r:id="rId28" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/2" xr:uid="{B3F46C47-D0D3-403B-8FDC-8D4BECB1D010}"/>
+    <hyperlink ref="A27" r:id="rId29" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/31" xr:uid="{7537E9EB-E78D-4606-9A02-450948D391E8}"/>
     <hyperlink ref="A9" r:id="rId30" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/13" xr:uid="{06167890-54FF-4657-9DA0-8CE92B00EA64}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1510,13 +1510,13 @@
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>64</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>65</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>67</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>69</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>70</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>71</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>73</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>74</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>75</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>77</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>79</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>80</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>81</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>82</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>83</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>84</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>85</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>86</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>87</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>88</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>89</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>90</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>91</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>92</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>93</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>94</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>95</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>96</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>97</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>98</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>99</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>100</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>101</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>102</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>103</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>104</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>105</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>106</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>107</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>108</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>109</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>110</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>111</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>112</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>113</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>114</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>115</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>116</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>117</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>118</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>119</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>120</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>121</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>122</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>123</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>124</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>125</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>126</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>127</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>128</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>129</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>130</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>131</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>132</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>133</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>134</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>135</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>136</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>137</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>138</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>139</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>140</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>141</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>142</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>143</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>144</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>145</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>147</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>148</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>149</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>150</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>151</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>152</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>153</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>154</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>155</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>156</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>157</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>158</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>159</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>160</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>161</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>162</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>163</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>164</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>165</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>166</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>167</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>168</v>
       </c>
@@ -2308,7 +2308,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>169</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>170</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>171</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>172</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>173</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>174</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>175</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>176</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>177</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>178</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>180</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>181</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>182</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>183</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>184</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>185</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>186</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>187</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>188</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>189</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
         <v>190</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>191</v>
       </c>
@@ -2484,7 +2484,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>192</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>193</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>194</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>195</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>196</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>197</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>198</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>199</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>200</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>201</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>202</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>203</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>204</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>205</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>206</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>207</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>208</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>209</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>211</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>212</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>213</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>214</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>215</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>216</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>217</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>218</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>219</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>220</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>221</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
         <v>222</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
         <v>224</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
         <v>225</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>226</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>227</v>
       </c>

--- a/PopuliQB_Tool/QB- Item List.xlsx
+++ b/PopuliQB_Tool/QB- Item List.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Upwork\QueensCounsulting\PopuliQB1\PopuliQB_Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDACF9E-ADB1-4173-8973-0E2C637E1F10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425BB469-B174-4062-92FB-31848B89793B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{D1EC46F2-DFE4-4AD9-84B0-06E54D97CEF4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9405" xr2:uid="{D1EC46F2-DFE4-4AD9-84B0-06E54D97CEF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Item List- Invoice" sheetId="1" r:id="rId1"/>
     <sheet name="Item List- Credit memo" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Item List- Credit memo'!$A$1:$A$165</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Item List- Invoice'!$A$1:$B$39</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="243">
   <si>
     <t>414220 ·: Student Tech Fees- MSP</t>
   </si>
@@ -719,13 +720,52 @@
   </si>
   <si>
     <t>Student Activity fee PsyD</t>
+  </si>
+  <si>
+    <t>DISC MSC Catholic Campus Ministry Assoc 15%</t>
+  </si>
+  <si>
+    <t>MSC Funded Scholarship Tenaglia</t>
+  </si>
+  <si>
+    <t>MOU MSC SETON 25%</t>
+  </si>
+  <si>
+    <t>MSC Faith and Hope 40%</t>
+  </si>
+  <si>
+    <t>SCH MSC 45%</t>
+  </si>
+  <si>
+    <t>420000 ·: Tuition Discount</t>
+  </si>
+  <si>
+    <t>MOU MSP Theology of the Body Inst. 20%</t>
+  </si>
+  <si>
+    <t>VTAG</t>
+  </si>
+  <si>
+    <t>460715 ·: Vtag</t>
+  </si>
+  <si>
+    <t>MOU MSC  St. Paul's Outreach 30%</t>
+  </si>
+  <si>
+    <t>MSP- FT 0.00-6.00</t>
+  </si>
+  <si>
+    <t>PsyD Student Activity fee</t>
+  </si>
+  <si>
+    <t>MSP- FT 0.00-6.00 credits</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -734,48 +774,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
+      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF202020"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF202020"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Cambria"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -787,8 +790,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -803,30 +805,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1139,1780 +1125,1682 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5315B542-CA34-4B58-8AC4-D11D579A4569}">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.7109375" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" t="s">
         <v>229</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="A28" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="A30" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="A31" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="A32" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="A33" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="A34" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="A35" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="A36" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="A37" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+      <c r="A39" t="s">
         <v>1</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="40" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A20" r:id="rId1" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/29" xr:uid="{603FBB22-B822-4554-83C8-D286B6E975A4}"/>
-    <hyperlink ref="A10" r:id="rId2" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/5" xr:uid="{8C5C3BEE-D765-4AF9-8A7F-785D596C83F9}"/>
-    <hyperlink ref="A11" r:id="rId3" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/1" xr:uid="{CFB660DD-413F-4964-B6DC-28382AE83599}"/>
-    <hyperlink ref="A12" r:id="rId4" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/8" xr:uid="{6D42563F-EC3B-4096-AA75-74A8EDD066B1}"/>
-    <hyperlink ref="A13" r:id="rId5" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/6" xr:uid="{A9CC5B21-88DA-4CED-BB21-58D31EAAA401}"/>
-    <hyperlink ref="A14" r:id="rId6" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/22" xr:uid="{FF544010-7535-4289-A4DE-34675D708748}"/>
-    <hyperlink ref="A15" r:id="rId7" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/30" xr:uid="{D7DCBE6E-3700-4C87-8B04-1A469882A262}"/>
-    <hyperlink ref="A16" r:id="rId8" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/4" xr:uid="{AEBD70B9-4D4B-4F0A-B957-7CE38704C2F5}"/>
-    <hyperlink ref="A17" r:id="rId9" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/15" xr:uid="{C791D244-5822-49E0-A313-9058B19ABC68}"/>
-    <hyperlink ref="A18" r:id="rId10" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/14" xr:uid="{AD4E444C-1BE9-467E-8684-FC4C0F35C0D3}"/>
-    <hyperlink ref="A19" r:id="rId11" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/16" xr:uid="{FE2B8635-7844-49E6-929B-E5021D56A5EB}"/>
-    <hyperlink ref="A24" r:id="rId12" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/11" xr:uid="{1A6A13D9-DDF6-4F14-896D-9097C71E51B6}"/>
-    <hyperlink ref="A21" r:id="rId13" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/12" xr:uid="{80C083DA-0282-442E-BBE7-6A6482C0464C}"/>
-    <hyperlink ref="A23" r:id="rId14" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/10" xr:uid="{FE3A03E8-DDAF-49AB-A0CC-8C8025656C55}"/>
-    <hyperlink ref="A25" r:id="rId15" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/9" xr:uid="{FAE57A08-8419-40D5-ACA0-8C6488CF3AFB}"/>
-    <hyperlink ref="A26" r:id="rId16" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/7" xr:uid="{1C9DCE4F-D604-4129-8AD4-5C5220C16AC0}"/>
-    <hyperlink ref="A28" r:id="rId17" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/18" xr:uid="{4B5F5FBD-727A-4E22-A7DE-9DA8E11C5489}"/>
-    <hyperlink ref="A29" r:id="rId18" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/17" xr:uid="{C84A7E95-67A2-4C93-8857-AEBF5330724F}"/>
-    <hyperlink ref="A30" r:id="rId19" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/28" xr:uid="{265852ED-2396-4C5F-85DB-EE918FA5F6C5}"/>
-    <hyperlink ref="A31" r:id="rId20" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/32" xr:uid="{C13E8989-3587-45D6-B9FF-ED34F3FD7777}"/>
-    <hyperlink ref="A32" r:id="rId21" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/20" xr:uid="{7F1C1D56-0B4A-4063-AE78-7C85FCDF0608}"/>
-    <hyperlink ref="A33" r:id="rId22" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/21" xr:uid="{B6465ACB-A275-4539-82F0-FB3644644C23}"/>
-    <hyperlink ref="A34" r:id="rId23" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/19" xr:uid="{941DDE89-9D1E-45F7-9384-ADF54D69589E}"/>
-    <hyperlink ref="A35" r:id="rId24" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/37" xr:uid="{6E3DB15D-7342-443A-A094-ACE6A8032944}"/>
-    <hyperlink ref="A36" r:id="rId25" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/43" xr:uid="{96F93ED6-156C-4759-AAA2-895498527B00}"/>
-    <hyperlink ref="A37" r:id="rId26" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/33" xr:uid="{BC2E3CBD-BCDA-437F-A51D-C9D4E898C316}"/>
-    <hyperlink ref="A38" r:id="rId27" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/3" xr:uid="{FBD370C5-C3F4-467C-8C95-B7312567C99B}"/>
-    <hyperlink ref="A39" r:id="rId28" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/2" xr:uid="{B3F46C47-D0D3-403B-8FDC-8D4BECB1D010}"/>
-    <hyperlink ref="A27" r:id="rId29" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/31" xr:uid="{7537E9EB-E78D-4606-9A02-450948D391E8}"/>
-    <hyperlink ref="A9" r:id="rId30" display="https://divinemercyedu.populiweb.com/router/financial/billing/fees/13" xr:uid="{06167890-54FF-4657-9DA0-8CE92B00EA64}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62BDCA46-2904-4506-8B07-72BBEE74628B}">
-  <dimension ref="A1:B155"/>
+  <dimension ref="A1:B163"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A163" sqref="A163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.140625" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" t="s">
         <v>83</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" t="s">
         <v>85</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" t="s">
         <v>86</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" t="s">
         <v>89</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" t="s">
         <v>91</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" t="s">
         <v>92</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" t="s">
         <v>93</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" t="s">
         <v>94</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" t="s">
         <v>95</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="A28" t="s">
         <v>96</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="A29" t="s">
         <v>97</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="A30" t="s">
         <v>98</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="A31" t="s">
         <v>99</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="A32" t="s">
         <v>100</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="A33" t="s">
         <v>101</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="A34" t="s">
         <v>102</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="A35" t="s">
         <v>103</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="A36" t="s">
         <v>104</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="A37" t="s">
         <v>105</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="A38" t="s">
         <v>106</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+      <c r="A39" t="s">
         <v>107</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+      <c r="A40" t="s">
         <v>108</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="A41" t="s">
         <v>109</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="A42" t="s">
         <v>110</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+      <c r="A43" t="s">
         <v>111</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+      <c r="A44" t="s">
         <v>112</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+      <c r="A45" t="s">
         <v>113</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+      <c r="A46" t="s">
         <v>114</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+      <c r="A47" t="s">
         <v>115</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+      <c r="A48" t="s">
         <v>116</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+      <c r="A49" t="s">
         <v>117</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+      <c r="A50" t="s">
         <v>118</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+      <c r="A51" t="s">
         <v>119</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+      <c r="A52" t="s">
         <v>120</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+      <c r="A53" t="s">
         <v>121</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+      <c r="A54" t="s">
         <v>122</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+      <c r="A55" t="s">
         <v>123</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+      <c r="A56" t="s">
         <v>124</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
+      <c r="A57" t="s">
         <v>125</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
+      <c r="A58" t="s">
         <v>126</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
+      <c r="A59" t="s">
         <v>127</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
+      <c r="A60" t="s">
         <v>128</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
+      <c r="A61" t="s">
         <v>129</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
+      <c r="A62" t="s">
         <v>130</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
+      <c r="A63" t="s">
         <v>131</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
+      <c r="A64" t="s">
         <v>132</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
+      <c r="A65" t="s">
         <v>133</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
+      <c r="A66" t="s">
         <v>134</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
+      <c r="A67" t="s">
         <v>135</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
+      <c r="A68" t="s">
         <v>136</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
+      <c r="A69" t="s">
         <v>137</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
+      <c r="A70" t="s">
         <v>138</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
+      <c r="A71" t="s">
         <v>139</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
+      <c r="A72" t="s">
         <v>140</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
+      <c r="A73" t="s">
         <v>141</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
+      <c r="A74" t="s">
         <v>142</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
+      <c r="A75" t="s">
         <v>143</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
+      <c r="A76" t="s">
         <v>144</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
+      <c r="A77" t="s">
         <v>145</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
+      <c r="A78" t="s">
         <v>147</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
+      <c r="A79" t="s">
         <v>148</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
+      <c r="A80" t="s">
         <v>149</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
+      <c r="A81" t="s">
         <v>150</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
+      <c r="A82" t="s">
         <v>151</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
+      <c r="A83" t="s">
         <v>152</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
+      <c r="A84" t="s">
         <v>153</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
+      <c r="A85" t="s">
         <v>154</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
+      <c r="A86" t="s">
         <v>155</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
+      <c r="A87" t="s">
         <v>156</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
+      <c r="A88" t="s">
         <v>157</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
+      <c r="A89" t="s">
         <v>158</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
+      <c r="A90" t="s">
         <v>159</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
+      <c r="A91" t="s">
         <v>160</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
+      <c r="A92" t="s">
         <v>161</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
+      <c r="A93" t="s">
         <v>162</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
+      <c r="A94" t="s">
         <v>163</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
+      <c r="A95" t="s">
         <v>164</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
+      <c r="A96" t="s">
         <v>165</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
+      <c r="A97" t="s">
         <v>166</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
+      <c r="A98" t="s">
         <v>167</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
+      <c r="A99" t="s">
         <v>168</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
+      <c r="A100" t="s">
         <v>169</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
+      <c r="A101" t="s">
         <v>170</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
+      <c r="A102" t="s">
         <v>171</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
+      <c r="A103" t="s">
         <v>172</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="5" t="s">
+      <c r="A104" t="s">
         <v>173</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="5" t="s">
+      <c r="A105" t="s">
         <v>174</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
+      <c r="A106" t="s">
         <v>175</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
+      <c r="A107" t="s">
         <v>176</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="5" t="s">
+      <c r="A108" t="s">
         <v>177</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="5" t="s">
+      <c r="A109" t="s">
         <v>178</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="5" t="s">
+      <c r="A110" t="s">
         <v>180</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="5" t="s">
+      <c r="A111" t="s">
         <v>181</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="5" t="s">
+      <c r="A112" t="s">
         <v>182</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="5" t="s">
+      <c r="A113" t="s">
         <v>183</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="5" t="s">
+      <c r="A114" t="s">
         <v>184</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="5" t="s">
+      <c r="A115" t="s">
         <v>185</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="5" t="s">
+      <c r="A116" t="s">
         <v>186</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="5" t="s">
+      <c r="A117" t="s">
         <v>187</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="5" t="s">
+      <c r="A118" t="s">
         <v>188</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="5" t="s">
+      <c r="A119" t="s">
         <v>189</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="5" t="s">
+      <c r="A120" t="s">
         <v>190</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="5" t="s">
+      <c r="A121" t="s">
         <v>191</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="5" t="s">
+      <c r="A122" t="s">
         <v>192</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="5" t="s">
+      <c r="A123" t="s">
         <v>193</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="5" t="s">
+      <c r="A124" t="s">
         <v>194</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B124" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="5" t="s">
+      <c r="A125" t="s">
         <v>195</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="5" t="s">
+      <c r="A126" t="s">
         <v>196</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="5" t="s">
+      <c r="A127" t="s">
         <v>197</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B127" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="5" t="s">
+      <c r="A128" t="s">
         <v>198</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B128" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="5" t="s">
+      <c r="A129" t="s">
         <v>199</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="5" t="s">
+      <c r="A130" t="s">
         <v>200</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B130" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="5" t="s">
+      <c r="A131" t="s">
         <v>201</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B131" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="5" t="s">
+      <c r="A132" t="s">
         <v>202</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="5" t="s">
+      <c r="A133" t="s">
         <v>203</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B133" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="5" t="s">
+      <c r="A134" t="s">
         <v>204</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="5" t="s">
+      <c r="A135" t="s">
         <v>205</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B135" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="5" t="s">
+      <c r="A136" t="s">
         <v>206</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B136" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="5" t="s">
+      <c r="A137" t="s">
         <v>207</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="B137" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="5" t="s">
+      <c r="A138" t="s">
         <v>208</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B138" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="5" t="s">
+      <c r="A139" t="s">
         <v>209</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B139" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="5" t="s">
+      <c r="A140" t="s">
         <v>211</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B140" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="5" t="s">
+      <c r="A141" t="s">
         <v>212</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B141" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="5" t="s">
+      <c r="A142" t="s">
         <v>213</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B142" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="5" t="s">
+      <c r="A143" t="s">
         <v>214</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="B143" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="5" t="s">
+      <c r="A144" t="s">
         <v>215</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B144" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="5" t="s">
+      <c r="A145" t="s">
         <v>216</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="B145" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="5" t="s">
+      <c r="A146" t="s">
         <v>217</v>
       </c>
-      <c r="B146" s="3" t="s">
+      <c r="B146" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="5" t="s">
+      <c r="A147" t="s">
         <v>218</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="B147" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="5" t="s">
+      <c r="A148" t="s">
         <v>219</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="B148" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="5" t="s">
+      <c r="A149" t="s">
         <v>220</v>
       </c>
-      <c r="B149" s="3" t="s">
+      <c r="B149" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="5" t="s">
+      <c r="A150" t="s">
         <v>221</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="B150" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="5" t="s">
+      <c r="A151" t="s">
         <v>222</v>
       </c>
-      <c r="B151" s="3" t="s">
+      <c r="B151" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="5" t="s">
+      <c r="A152" t="s">
         <v>224</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B152" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="5" t="s">
+      <c r="A153" t="s">
         <v>225</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="B153" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="5" t="s">
+      <c r="A154" t="s">
         <v>226</v>
       </c>
-      <c r="B154" s="3" t="s">
+      <c r="B154" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="5" t="s">
+      <c r="A155" t="s">
         <v>227</v>
       </c>
-      <c r="B155" s="3" t="s">
+      <c r="B155" t="s">
         <v>228</v>
       </c>
     </row>
+    <row r="156" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{55C65DC3-DEA5-4696-8A6C-4A0C109C08F5}"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{90588ADA-42F8-4C5D-A281-CACE502753A7}"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{C098DCAD-6672-4703-AFCF-D74C5E797BE9}"/>
-    <hyperlink ref="A5" r:id="rId4" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{559C1519-4818-47AD-A8FE-410C2C3449BD}"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{666CD514-C251-445D-B52F-2D820B9A0EFC}"/>
-    <hyperlink ref="A7" r:id="rId6" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{20F9EFB2-9B12-427C-A964-43C17D84AF88}"/>
-    <hyperlink ref="A8" r:id="rId7" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{2578A2BF-0203-493E-9160-0818C0596848}"/>
-    <hyperlink ref="A9" r:id="rId8" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{4AD9D5AC-9C98-43A2-BA82-04DD26C3A4DA}"/>
-    <hyperlink ref="A10" r:id="rId9" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{569654F6-98F1-45E5-A122-E126B5385443}"/>
-    <hyperlink ref="A11" r:id="rId10" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{235CBA66-DAC3-41E2-AC62-A21C3ECD599B}"/>
-    <hyperlink ref="A12" r:id="rId11" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{F5EC5139-C2B6-4197-9C1D-3B8064A02B7E}"/>
-    <hyperlink ref="A13" r:id="rId12" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{E2BDB0E2-FE0D-449C-BC7F-A281B7734EE1}"/>
-    <hyperlink ref="A14" r:id="rId13" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{7EF8504F-6554-442A-8F7E-39D8A990AEDB}"/>
-    <hyperlink ref="A15" r:id="rId14" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{B13AE23A-5862-4786-BBEF-6F7CB30AC2F8}"/>
-    <hyperlink ref="A16" r:id="rId15" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{BC21EA25-ED60-4729-9E76-BA814FCA2B57}"/>
-    <hyperlink ref="A17" r:id="rId16" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{CF1493DE-4DA6-4A02-80B0-639DADB4BD87}"/>
-    <hyperlink ref="A18" r:id="rId17" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{55792F16-FF4D-4DF8-A404-723D4F970C75}"/>
-    <hyperlink ref="A19" r:id="rId18" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{420FD5BB-723D-4A8A-897F-A6A91E76CA2D}"/>
-    <hyperlink ref="A20" r:id="rId19" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{AF8C0E30-971C-4E16-9E05-AE678763794A}"/>
-    <hyperlink ref="A21" r:id="rId20" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{FC14C448-5BC6-43EA-A833-0B3F60304624}"/>
-    <hyperlink ref="A22" r:id="rId21" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{3EEB9F62-A829-43FD-9EFE-4E280FDAFC1F}"/>
-    <hyperlink ref="A23" r:id="rId22" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{5B60B7D3-3D1C-47BD-AE40-7D9CA66C8447}"/>
-    <hyperlink ref="A24" r:id="rId23" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{C70EEC2F-346A-4626-A39E-D8D8AC64FAB6}"/>
-    <hyperlink ref="A25" r:id="rId24" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{7B16B51B-E500-408A-B1D0-19C17310D811}"/>
-    <hyperlink ref="A26" r:id="rId25" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{8359F07C-E255-46D9-9B15-8840F405CB6D}"/>
-    <hyperlink ref="A27" r:id="rId26" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{55FCCA49-A517-403D-9FE0-E9B7E4BB554C}"/>
-    <hyperlink ref="A28" r:id="rId27" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{A65F9427-8614-4DCA-9F3F-3D53023E301D}"/>
-    <hyperlink ref="A29" r:id="rId28" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{0A55DC02-E412-4C39-ADF9-4BD14B5DB261}"/>
-    <hyperlink ref="A30" r:id="rId29" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{1FF29C00-1E37-4D87-81AC-FA64CD63A842}"/>
-    <hyperlink ref="A31" r:id="rId30" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{0CE28213-3374-4531-93B7-63C606D5D60E}"/>
-    <hyperlink ref="A32" r:id="rId31" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{D119759C-BCEF-4BE3-A26A-AC2F2AFA3505}"/>
-    <hyperlink ref="A33" r:id="rId32" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{7D80BD2D-B0B2-49F6-8662-0126B6DAED56}"/>
-    <hyperlink ref="A34" r:id="rId33" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{D262014A-3FEF-486A-95B0-37D69AB8F283}"/>
-    <hyperlink ref="A35" r:id="rId34" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{1BC90056-E0B7-4432-88C0-FDCE0EA880C4}"/>
-    <hyperlink ref="A36" r:id="rId35" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{1AF5E6E6-592D-4752-849E-A74A5D748281}"/>
-    <hyperlink ref="A37" r:id="rId36" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{0893FAB5-1BF1-4AA3-B72F-FB995D6CB823}"/>
-    <hyperlink ref="A38" r:id="rId37" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{73E98CDD-46E1-4FAC-8F0E-9298BC91773B}"/>
-    <hyperlink ref="A39" r:id="rId38" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{FCAECFEB-3170-4E61-B01D-B0881E1B9978}"/>
-    <hyperlink ref="A40" r:id="rId39" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{8626852C-4965-4C6A-B107-5281C6E5363F}"/>
-    <hyperlink ref="A41" r:id="rId40" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{B3E0D938-A845-4385-AFBF-5633BDF2D9DF}"/>
-    <hyperlink ref="A42" r:id="rId41" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{57CEF1E4-E386-44C4-B30B-4EB8BA07DAF9}"/>
-    <hyperlink ref="A43" r:id="rId42" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{F6A5196E-DC47-4FCA-A4C3-CDBB2E804477}"/>
-    <hyperlink ref="A44" r:id="rId43" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{8620AF5F-75BC-4201-9D63-E1324E078F7D}"/>
-    <hyperlink ref="A45" r:id="rId44" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{83FCC26F-8BFA-4246-A7CF-5E5AF478B8E9}"/>
-    <hyperlink ref="A46" r:id="rId45" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{CFD71569-08B5-4754-862B-A3CC5F84A648}"/>
-    <hyperlink ref="A47" r:id="rId46" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{35B4855D-8735-409E-8DB3-D3B1BAD33933}"/>
-    <hyperlink ref="A48" r:id="rId47" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{7FBC098B-6004-4B26-B662-16AC3710ECA6}"/>
-    <hyperlink ref="A49" r:id="rId48" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{4DF1A02A-0271-4458-8758-1112C13BEDC2}"/>
-    <hyperlink ref="A50" r:id="rId49" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{769D68FD-4B62-47BA-9F18-7EE15451B2DF}"/>
-    <hyperlink ref="A51" r:id="rId50" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{21F38F01-3032-430B-8399-C6A232B658D4}"/>
-    <hyperlink ref="A52" r:id="rId51" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{DC8698B9-BB79-47B8-B2D4-CEA277D32052}"/>
-    <hyperlink ref="A53" r:id="rId52" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{8E48B454-3D45-4678-8C24-A025BF276470}"/>
-    <hyperlink ref="A54" r:id="rId53" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{DDC6F40E-3488-44E8-866F-14741A09184C}"/>
-    <hyperlink ref="A55" r:id="rId54" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{06F711DB-F9C3-4001-8EB6-97652BF4E0CD}"/>
-    <hyperlink ref="A56" r:id="rId55" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{6CFA1059-47DD-4856-9B57-7D7889B700A5}"/>
-    <hyperlink ref="A57" r:id="rId56" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{2EE57026-2F42-4E0F-9A7D-3BB4B14B95BE}"/>
-    <hyperlink ref="A58" r:id="rId57" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{7ED07871-2597-491D-95EC-22FC89EC9DCE}"/>
-    <hyperlink ref="A59" r:id="rId58" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{53E6F815-ADAF-4005-85D3-CECC1553643E}"/>
-    <hyperlink ref="A60" r:id="rId59" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{907F5670-46E3-4726-B9EB-149C15A6A529}"/>
-    <hyperlink ref="A61" r:id="rId60" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{76524D7C-17C8-4A57-9829-3BE82BE8441B}"/>
-    <hyperlink ref="A62" r:id="rId61" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{16865083-36BC-48CA-BB98-4F7ED1453A60}"/>
-    <hyperlink ref="A63" r:id="rId62" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{11707418-49C0-469C-A7BF-05EA4987C403}"/>
-    <hyperlink ref="A64" r:id="rId63" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{CC0FAA16-0C0C-48A2-B1B5-7D963D358C9C}"/>
-    <hyperlink ref="A65" r:id="rId64" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{9F9E2A49-B52C-48C7-B306-D9F5032F72F4}"/>
-    <hyperlink ref="A66" r:id="rId65" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{680DF548-4AC3-49EF-8FE4-B2FAF13608FC}"/>
-    <hyperlink ref="A67" r:id="rId66" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{E9A5D6E4-50C2-4E5F-AAAE-BA334810E4F2}"/>
-    <hyperlink ref="A68" r:id="rId67" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{2690F90D-FF55-4D72-BFCB-D7472B52E2FC}"/>
-    <hyperlink ref="A69" r:id="rId68" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{8D1514B6-6572-4A05-A69A-C7AAF5C20E49}"/>
-    <hyperlink ref="A70" r:id="rId69" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{33F9A97D-95BD-4272-B48C-B65C982CF7A4}"/>
-    <hyperlink ref="A71" r:id="rId70" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{BC5DFE84-72E0-479F-9907-C58BD0F16ABE}"/>
-    <hyperlink ref="A72" r:id="rId71" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{2E5E57BC-A66A-4EC8-8BDD-40BE57C0F79A}"/>
-    <hyperlink ref="A73" r:id="rId72" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{EFF12129-0247-48FE-AE81-0C8E89D807FA}"/>
-    <hyperlink ref="A74" r:id="rId73" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{8F1D4EE5-DD5C-40D5-942A-409355721B07}"/>
-    <hyperlink ref="A75" r:id="rId74" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{1F56FCC7-C384-4B72-8383-1E881D003F89}"/>
-    <hyperlink ref="A76" r:id="rId75" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{0FB2BBF5-FA2F-4F06-A476-6B4E7105764D}"/>
-    <hyperlink ref="A77" r:id="rId76" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{B9190AD7-CF7E-426F-874D-21DE65B1883E}"/>
-    <hyperlink ref="A78" r:id="rId77" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{DF0AC2E3-A8DE-494F-B0D0-030E0ED0EEB8}"/>
-    <hyperlink ref="A79" r:id="rId78" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{0963FBF8-5077-4527-8BD6-5B933B025B4E}"/>
-    <hyperlink ref="A80" r:id="rId79" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{D0274D41-D3DE-4F5C-A485-BF4512C207B0}"/>
-    <hyperlink ref="A81" r:id="rId80" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{D23B72C2-C464-4A24-8C70-7394232C2B9C}"/>
-    <hyperlink ref="A82" r:id="rId81" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{FD5157AE-F075-46A6-A4DD-72A5FA7E9BC3}"/>
-    <hyperlink ref="A83" r:id="rId82" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{B14730CE-342F-4326-B07F-DC7FB202EE21}"/>
-    <hyperlink ref="A84" r:id="rId83" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{29A5D9CE-778A-4478-BD97-D92330D38625}"/>
-    <hyperlink ref="A85" r:id="rId84" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{6D7CD50F-A4D3-4EF0-8A6B-34B86EA230F3}"/>
-    <hyperlink ref="A86" r:id="rId85" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{4E90EA8F-FD2D-4651-8A1A-C00B75376C97}"/>
-    <hyperlink ref="A87" r:id="rId86" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{55762764-CAEC-4D7F-AA80-83C59B261FEF}"/>
-    <hyperlink ref="A88" r:id="rId87" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{2CFA6A05-1837-4682-9E7C-2F3F77ABF708}"/>
-    <hyperlink ref="A89" r:id="rId88" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{A0009F9A-DB9F-4924-B6EB-115954141CD0}"/>
-    <hyperlink ref="A90" r:id="rId89" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{DEAE4367-0029-4273-94FC-077282BD75F5}"/>
-    <hyperlink ref="A91" r:id="rId90" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{9D79C4F8-1C07-4143-A173-47B47A42D089}"/>
-    <hyperlink ref="A92" r:id="rId91" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{D8BA6D29-9687-45C6-81B7-B35DB9EB0257}"/>
-    <hyperlink ref="A93" r:id="rId92" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{A2B97272-894C-4126-BF27-0F2F643BF90A}"/>
-    <hyperlink ref="A94" r:id="rId93" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{BA89AE91-31CD-4B8D-B0B4-66663767EBBF}"/>
-    <hyperlink ref="A95" r:id="rId94" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{294B859B-0E7F-4F3F-9082-B737A593EEAB}"/>
-    <hyperlink ref="A96" r:id="rId95" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{EC646046-68D3-471D-AA84-1D8A7382A660}"/>
-    <hyperlink ref="A97" r:id="rId96" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{306C0936-56C0-461A-A84E-16740D690417}"/>
-    <hyperlink ref="A98" r:id="rId97" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{DC8F0182-2C1E-4F40-A0FE-4D0075A82C4F}"/>
-    <hyperlink ref="A99" r:id="rId98" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{F0E09092-1D7D-4CE2-8698-29FD02B9939E}"/>
-    <hyperlink ref="A100" r:id="rId99" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{3847AEBC-8A14-4850-B678-669936982BED}"/>
-    <hyperlink ref="A101" r:id="rId100" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{6E8D0045-53AB-4AC9-BFF9-A699A452D42C}"/>
-    <hyperlink ref="A102" r:id="rId101" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{B4DF1DA3-D808-43E1-A8D4-E3CE7B32A3EC}"/>
-    <hyperlink ref="A103" r:id="rId102" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{CE770A7D-D93A-42CF-863C-02F49A33A12E}"/>
-    <hyperlink ref="A104" r:id="rId103" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{88D440C3-BB0A-46A8-BD9E-28113ED6B793}"/>
-    <hyperlink ref="A105" r:id="rId104" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{B9DF9726-A57A-4744-BDA4-1FD7D3571820}"/>
-    <hyperlink ref="A106" r:id="rId105" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{B1D6E02A-9A04-4784-A2F6-72EC928673B9}"/>
-    <hyperlink ref="A107" r:id="rId106" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{167A10C9-C8FD-4D3B-BFEE-6870CD538C06}"/>
-    <hyperlink ref="A108" r:id="rId107" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{B0B9E2D1-C754-4742-9F8C-3F9BBC82341A}"/>
-    <hyperlink ref="A109" r:id="rId108" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{72869506-8276-49BF-BA33-57DB07D8B601}"/>
-    <hyperlink ref="A110" r:id="rId109" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{C2F5EF5C-0A20-4FBF-A42D-918433C72946}"/>
-    <hyperlink ref="A111" r:id="rId110" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{E9B7F80F-B409-4C3B-B54A-B9C04E93C0B1}"/>
-    <hyperlink ref="A112" r:id="rId111" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{7BE6B300-578E-4F93-B0A6-3987C08ED8C5}"/>
-    <hyperlink ref="A113" r:id="rId112" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{8550CAD0-ED37-448E-AA79-C7012B427AC4}"/>
-    <hyperlink ref="A114" r:id="rId113" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{6000A532-E45F-4EC8-B526-9D4EE712F775}"/>
-    <hyperlink ref="A115" r:id="rId114" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{FE288F12-1AB1-4C42-8EA3-AF30E0F7A2FA}"/>
-    <hyperlink ref="A116" r:id="rId115" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{08C06CBE-6B46-4CC1-86F0-11672933E778}"/>
-    <hyperlink ref="A117" r:id="rId116" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{4FDEC0A6-96AE-4A59-883A-14BF52CDFA22}"/>
-    <hyperlink ref="A118" r:id="rId117" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{5E6C1CE0-179A-4131-ADA0-B6F33B50AD8B}"/>
-    <hyperlink ref="A119" r:id="rId118" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{4BC14DCA-C95D-4655-AA2D-AEA5943A9A82}"/>
-    <hyperlink ref="A120" r:id="rId119" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{46CB5832-4D0C-48A4-9F2A-C0F4DD0378B0}"/>
-    <hyperlink ref="A121" r:id="rId120" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{718C2C34-2055-4B2E-A0E6-E24801DFA833}"/>
-    <hyperlink ref="A122" r:id="rId121" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{59E66F97-8165-40CE-9461-2EDC3CAA2CFC}"/>
-    <hyperlink ref="A123" r:id="rId122" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{C84C646D-86F5-4346-AB7E-A77F9B962EB6}"/>
-    <hyperlink ref="A124" r:id="rId123" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{1129823A-F061-4C0B-9D26-C8BEF79B7580}"/>
-    <hyperlink ref="A125" r:id="rId124" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{BD45D777-6241-4345-B8FF-8497D9CDB4B4}"/>
-    <hyperlink ref="A126" r:id="rId125" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{029FC6AF-7A5C-4DFB-9D20-CCE840E9F39D}"/>
-    <hyperlink ref="A127" r:id="rId126" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{CFC0DE33-337B-475D-8420-B725BF18BC91}"/>
-    <hyperlink ref="A128" r:id="rId127" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{1E21C0A7-ACAD-4A5D-BDA8-DCF35A7582C4}"/>
-    <hyperlink ref="A129" r:id="rId128" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{2C5F0CF6-E74D-41CD-B51C-065BD36CFBE4}"/>
-    <hyperlink ref="A130" r:id="rId129" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{FF5C5720-E0B9-4A42-8FC0-7AEA5215063B}"/>
-    <hyperlink ref="A131" r:id="rId130" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{2BE036AF-9CB1-4B96-8281-4DDD609317AE}"/>
-    <hyperlink ref="A132" r:id="rId131" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{50AA2ECC-A2B2-4ED6-B67E-96C8792AD1BF}"/>
-    <hyperlink ref="A133" r:id="rId132" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{5AA337EB-028E-48FD-B473-8DC5BDB81CE6}"/>
-    <hyperlink ref="A134" r:id="rId133" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{D73660CD-81AC-41FA-A659-FA03A1E7E3BE}"/>
-    <hyperlink ref="A135" r:id="rId134" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{E9675F25-B4BF-4772-A321-0ABFF9D98FFD}"/>
-    <hyperlink ref="A136" r:id="rId135" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{2EBA2994-2F44-4539-9C0F-987997F56F62}"/>
-    <hyperlink ref="A137" r:id="rId136" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{61614A80-77F2-4D20-904F-E1236A53DD70}"/>
-    <hyperlink ref="A138" r:id="rId137" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{1478A731-655C-4289-8E35-73642E4BD81C}"/>
-    <hyperlink ref="A139" r:id="rId138" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{28FA183C-1FB9-4BE9-BF7E-DDF40AA8598A}"/>
-    <hyperlink ref="A140" r:id="rId139" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{84CFA09F-BD6B-4797-B326-7566ACD2D9DF}"/>
-    <hyperlink ref="A141" r:id="rId140" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{285E0F8B-3F27-4144-8554-009BBDD92729}"/>
-    <hyperlink ref="A142" r:id="rId141" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{ADAA36E4-F20B-4E64-BD4C-5A543A390DD7}"/>
-    <hyperlink ref="A143" r:id="rId142" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{519C885E-B591-4A3C-98BB-ADC0F7FE62DC}"/>
-    <hyperlink ref="A144" r:id="rId143" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{9F5434E6-17A0-4006-A444-965D492925F2}"/>
-    <hyperlink ref="A145" r:id="rId144" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{2F8F47C7-AAC1-4FD7-96AA-F2DF1BE4A153}"/>
-    <hyperlink ref="A146" r:id="rId145" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{44B568DF-F6D1-424B-9312-97BB30EE1842}"/>
-    <hyperlink ref="A147" r:id="rId146" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{2422E525-326D-4D8F-96B2-1DD3121056A6}"/>
-    <hyperlink ref="A148" r:id="rId147" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{57B42E0F-626B-445C-A36D-8C086C10F431}"/>
-    <hyperlink ref="A149" r:id="rId148" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{8ED3423C-6358-45F8-A9B4-9AF7E093FC06}"/>
-    <hyperlink ref="A150" r:id="rId149" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{6936AF69-FB44-42C5-89F1-DB949ADB18D3}"/>
-    <hyperlink ref="A151" r:id="rId150" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{E2159F24-EF1D-448F-8151-92BC433E3113}"/>
-    <hyperlink ref="A152" r:id="rId151" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{EBE720BA-2B1D-4469-BD54-A47F0CF45353}"/>
-    <hyperlink ref="A153" r:id="rId152" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{F5EACD30-4029-479C-8A81-E2ABE271F608}"/>
-    <hyperlink ref="A154" r:id="rId153" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{564DC6DF-9ABB-41E1-929B-F8C20FFB1371}"/>
-    <hyperlink ref="A155" r:id="rId154" display="https://divinemercyedu.populiweb.com/router/financial/aid/aidtypes" xr:uid="{741AF65A-AF55-4710-B393-B0CEA77E0D70}"/>
-  </hyperlinks>
+  <autoFilter ref="A1:A165" xr:uid="{4F62D15F-756B-49BC-BF70-D80BD1762776}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/PopuliQB_Tool/QB- Item List.xlsx
+++ b/PopuliQB_Tool/QB- Item List.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Upwork\QueensCounsulting\PopuliQB1\PopuliQB_Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425BB469-B174-4062-92FB-31848B89793B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B51A338-E55A-435E-A98C-1CBA01A751D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9405" xr2:uid="{D1EC46F2-DFE4-4AD9-84B0-06E54D97CEF4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9405" activeTab="1" xr2:uid="{D1EC46F2-DFE4-4AD9-84B0-06E54D97CEF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Item List- Invoice" sheetId="1" r:id="rId1"/>
     <sheet name="Item List- Credit memo" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Item List- Credit memo'!$A$1:$A$165</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Item List- Credit memo'!$A$1:$A$164</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Item List- Invoice'!$A$1:$B$39</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -749,9 +749,6 @@
     <t>460715 ·: Vtag</t>
   </si>
   <si>
-    <t>MOU MSC  St. Paul's Outreach 30%</t>
-  </si>
-  <si>
     <t>MSP- FT 0.00-6.00</t>
   </si>
   <si>
@@ -759,6 +756,9 @@
   </si>
   <si>
     <t>MSP- FT 0.00-6.00 credits</t>
+  </si>
+  <si>
+    <t>MOU MSC St. Paul's Outreach 25%</t>
   </si>
 </sst>
 </file>
@@ -1127,9 +1127,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5315B542-CA34-4B58-8AC4-D11D579A4569}">
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="40" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>27</v>
@@ -1460,7 +1460,7 @@
     </row>
     <row r="41" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>53</v>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="42" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>53</v>
@@ -1484,9 +1484,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62BDCA46-2904-4506-8B07-72BBEE74628B}">
   <dimension ref="A1:B163"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A163" sqref="A163"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2793,14 +2793,15 @@
     </row>
     <row r="163" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>68</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A165" xr:uid="{4F62D15F-756B-49BC-BF70-D80BD1762776}"/>
+  <autoFilter ref="A1:A164" xr:uid="{4F62D15F-756B-49BC-BF70-D80BD1762776}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PopuliQB_Tool/QB- Item List.xlsx
+++ b/PopuliQB_Tool/QB- Item List.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Upwork\QueensCounsulting\PopuliQB1\PopuliQB_Tool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2-JOB\Upwork\QueensCounsulting\PopuliQB1\PopuliQB_Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B51A338-E55A-435E-A98C-1CBA01A751D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9405" activeTab="1" xr2:uid="{D1EC46F2-DFE4-4AD9-84B0-06E54D97CEF4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="Item List- Invoice" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Item List- Credit memo'!$A$1:$A$164</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Item List- Invoice'!$A$1:$B$39</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="244">
   <si>
     <t>414220 ·: Student Tech Fees- MSP</t>
   </si>
@@ -759,12 +758,15 @@
   </si>
   <si>
     <t>MOU MSC St. Paul's Outreach 25%</t>
+  </si>
+  <si>
+    <t>MSP- FT (Summer) 0.00-3.00 credits</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1124,12 +1126,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5315B542-CA34-4B58-8AC4-D11D579A4569}">
-  <dimension ref="A1:B42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1474,6 +1476,14 @@
         <v>53</v>
       </c>
     </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>243</v>
+      </c>
+      <c r="B43" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1481,17 +1491,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62BDCA46-2904-4506-8B07-72BBEE74628B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B163"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.140625" customWidth="1"/>
+    <col min="1" max="1" width="66.140625" customWidth="1"/>
     <col min="2" max="2" width="45.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2800,7 +2810,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A164" xr:uid="{4F62D15F-756B-49BC-BF70-D80BD1762776}"/>
+  <autoFilter ref="A1:A164"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
